--- a/zavod/data/excel_dir/Документ 08-09.05.2024.xlsx
+++ b/zavod/data/excel_dir/Документ 08-09.05.2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grish\PythonProjects\uploaded_projects\ZAVOD_project\zavod\data\excel_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91432CF5-E3A8-4142-9DAA-877C9B34049B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB4F97-19AE-4152-82AA-869CB3B1233F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>нс Дьяконов, остояние щеточного механизма, искрений не наблюдалось.</t>
+  </si>
+  <si>
+    <t>Установки 1, 4 выведены из работы</t>
   </si>
 </sst>
 </file>
@@ -595,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -666,7 +669,9 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
